--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,51 +46,63 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>however</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
@@ -100,64 +112,70 @@
     <t>broken</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>fl</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>di</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
@@ -166,78 +184,75 @@
     <t>better</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>even</t>
+    <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -247,25 +262,28 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -629,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7580645161290323</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C5">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="L5">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="L5">
-        <v>66</v>
-      </c>
       <c r="M5">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7330097087378641</v>
+        <v>0.7621359223300971</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>0.609375</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K7">
         <v>0.5471698113207547</v>
@@ -948,37 +966,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>140</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>46</v>
       </c>
-      <c r="D8">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6756756756756757</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.3819672131147541</v>
+        <v>0.46875</v>
       </c>
       <c r="L9">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>754</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6052631578947368</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.360632183908046</v>
+        <v>0.369672131147541</v>
       </c>
       <c r="L10">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="M10">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>445</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5789473684210527</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.3070539419087137</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L11">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="M11">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>334</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.2469879518072289</v>
+        <v>0.3091286307053942</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -1216,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.225</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5555555555555556</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.1798941798941799</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.1773700305810398</v>
+        <v>0.2415902140672783</v>
       </c>
       <c r="L15">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5272727272727272</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.1538461538461539</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5101449275362319</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C17">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.1165644171779141</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="L17">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1008</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.1164658634538153</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.462962962962963</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,31 +1534,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.06298701298701298</v>
+        <v>0.09569798068481124</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1443</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4603174603174603</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,7 +1584,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20">
+        <v>0.06406685236768803</v>
+      </c>
+      <c r="L20">
+        <v>23</v>
+      </c>
+      <c r="M20">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4330708661417323</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,7 +1634,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>168</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>0.05974025974025974</v>
+      </c>
+      <c r="L21">
+        <v>92</v>
+      </c>
+      <c r="M21">
+        <v>93</v>
+      </c>
+      <c r="N21">
+        <v>0.99</v>
+      </c>
+      <c r="O21">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1448</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4096385542168675</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1652,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3793103448275862</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1670,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1678,13 +1744,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3770491803278688</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1696,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1704,13 +1770,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.375</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1722,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1730,25 +1796,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3707865168539326</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1756,13 +1822,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.359375</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1774,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1782,13 +1848,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3465346534653465</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1800,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1808,13 +1874,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3432835820895522</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1826,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1834,13 +1900,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3270142180094787</v>
+        <v>0.3671875</v>
       </c>
       <c r="C31">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1852,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1860,13 +1926,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2938144329896907</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1878,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>137</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1886,13 +1952,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2905982905982906</v>
+        <v>0.359375</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1904,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1912,13 +1978,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2653061224489796</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1930,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1938,13 +2004,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2531645569620253</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1956,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1964,13 +2030,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2417582417582418</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1982,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1990,13 +2056,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.211864406779661</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2008,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2016,13 +2082,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2028985507246377</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2034,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>220</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2042,13 +2108,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2025316455696203</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2060,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>252</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2068,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>160</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2094,13 +2160,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2112,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2120,25 +2186,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1976225854383358</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C42">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="E42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>540</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2146,13 +2212,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1771428571428571</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2164,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>144</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2172,13 +2238,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1728971962616822</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2190,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2198,13 +2264,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.171875</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2216,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>159</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2224,13 +2290,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1592356687898089</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2242,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2250,13 +2316,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1585903083700441</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C47">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2268,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>382</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2276,13 +2342,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1475409836065574</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2294,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>156</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2302,25 +2368,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1469740634005764</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C49">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>296</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2328,25 +2394,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1336898395721925</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2354,13 +2420,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1290322580645161</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2372,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>216</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2380,13 +2446,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1095890410958904</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2398,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2406,13 +2472,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1048689138576779</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2424,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2432,25 +2498,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09060955518945635</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F54">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>552</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2458,13 +2524,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08571428571428572</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2476,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2484,13 +2550,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08169014084507042</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2502,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>326</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2510,13 +2576,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0801781737193764</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="C57">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2528,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>413</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2536,25 +2602,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.07764705882352942</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E58">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>392</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2562,25 +2628,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04810126582278481</v>
+        <v>0.08881578947368421</v>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D59">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E59">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>752</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2588,25 +2654,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.0444104134762634</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E60">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>624</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2614,25 +2680,129 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04365079365079365</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.07746478873239436</v>
+      </c>
+      <c r="C62">
+        <v>33</v>
+      </c>
+      <c r="D62">
+        <v>41</v>
+      </c>
+      <c r="E62">
+        <v>0.2</v>
+      </c>
+      <c r="F62">
+        <v>0.8</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.07255520504731862</v>
+      </c>
+      <c r="C63">
+        <v>23</v>
+      </c>
+      <c r="D63">
+        <v>23</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.04701397712833545</v>
+      </c>
+      <c r="C64">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>44</v>
+      </c>
+      <c r="E64">
+        <v>0.16</v>
+      </c>
+      <c r="F64">
+        <v>0.84</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.03374233128834356</v>
+      </c>
+      <c r="C65">
         <v>22</v>
       </c>
-      <c r="D61">
-        <v>22</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>482</v>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>0.12</v>
+      </c>
+      <c r="F65">
+        <v>0.88</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
